--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,31 +643,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 50833-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 50833-2019.xlsx", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 50833-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 50833-2019.png", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 50833-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 50833-2019.png", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 50833-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 50833-2019.docx", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 50833-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 50833-2019.docx", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 50833-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 50833-2019.docx", "A 50833-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 50833-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 50833-2019.docx", "A 50833-2019")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 62527-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 62527-2022.xlsx", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 62527-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 62527-2022.png", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 62527-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 62527-2022.png", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 62527-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 62527-2022.docx", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 62527-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 62527-2022.docx", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 62527-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 62527-2022.docx", "A 62527-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 62527-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 62527-2022.docx", "A 62527-2022")</f>
         <v/>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,27 +839,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 3368-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 3368-2023.xlsx", "A 3368-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 3368-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 3368-2023.png", "A 3368-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 3368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 3368-2023.docx", "A 3368-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 3368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 3368-2023.docx", "A 3368-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 3368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 3368-2023.docx", "A 3368-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 3368-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 3368-2023.docx", "A 3368-2023")</f>
         <v/>
       </c>
     </row>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,27 +927,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 50860-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 50860-2019.xlsx", "A 50860-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 50860-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 50860-2019.png", "A 50860-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 50860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 50860-2019.docx", "A 50860-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 50860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 50860-2019.docx", "A 50860-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 50860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 50860-2019.docx", "A 50860-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 50860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 50860-2019.docx", "A 50860-2019")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,27 +1015,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 31708-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 31708-2021.xlsx", "A 31708-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 31708-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 31708-2021.png", "A 31708-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 31708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 31708-2021.docx", "A 31708-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 31708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 31708-2021.docx", "A 31708-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 31708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 31708-2021.docx", "A 31708-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 31708-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 31708-2021.docx", "A 31708-2021")</f>
         <v/>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 64290-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 64290-2021.xlsx", "A 64290-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 64290-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 64290-2021.png", "A 64290-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 64290-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 64290-2021.docx", "A 64290-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 64290-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 64290-2021.docx", "A 64290-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 64290-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 64290-2021.docx", "A 64290-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 64290-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 64290-2021.docx", "A 64290-2021")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 36753-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 36753-2022.xlsx", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 36753-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 36753-2022.png", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 36753-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/knärot/A 36753-2022.png", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 36753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 36753-2022.docx", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 36753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 36753-2022.docx", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 36753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 36753-2022.docx", "A 36753-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 36753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 36753-2022.docx", "A 36753-2022")</f>
         <v/>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,27 +1292,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 64289-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 64289-2021.xlsx", "A 64289-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 64289-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 64289-2021.png", "A 64289-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 64289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 64289-2021.docx", "A 64289-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 64289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 64289-2021.docx", "A 64289-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 64289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 64289-2021.docx", "A 64289-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 64289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 64289-2021.docx", "A 64289-2021")</f>
         <v/>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,27 +1378,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 53419-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 53419-2020.xlsx", "A 53419-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 53419-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 53419-2020.png", "A 53419-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 53419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 53419-2020.docx", "A 53419-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 53419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 53419-2020.docx", "A 53419-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 53419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 53419-2020.docx", "A 53419-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 53419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 53419-2020.docx", "A 53419-2020")</f>
         <v/>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,27 +1469,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 35979-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 35979-2022.xlsx", "A 35979-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 35979-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 35979-2022.png", "A 35979-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 35979-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 35979-2022.docx", "A 35979-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 35979-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 35979-2022.docx", "A 35979-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 35979-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 35979-2022.docx", "A 35979-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 35979-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 35979-2022.docx", "A 35979-2022")</f>
         <v/>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,27 +1555,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 9341-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 9341-2023.xlsx", "A 9341-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 9341-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 9341-2023.png", "A 9341-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 9341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 9341-2023.docx", "A 9341-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 9341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 9341-2023.docx", "A 9341-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 9341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 9341-2023.docx", "A 9341-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 9341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 9341-2023.docx", "A 9341-2023")</f>
         <v/>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,27 +1640,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 54845-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 54845-2018.xlsx", "A 54845-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 54845-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 54845-2018.png", "A 54845-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 54845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 54845-2018.docx", "A 54845-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 54845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 54845-2018.docx", "A 54845-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 54845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 54845-2018.docx", "A 54845-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 54845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 54845-2018.docx", "A 54845-2018")</f>
         <v/>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,27 +1725,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 47305-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 47305-2019.xlsx", "A 47305-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 47305-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 47305-2019.png", "A 47305-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 47305-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 47305-2019.docx", "A 47305-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 47305-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 47305-2019.docx", "A 47305-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 47305-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 47305-2019.docx", "A 47305-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 47305-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 47305-2019.docx", "A 47305-2019")</f>
         <v/>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 67324-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 67324-2020.xlsx", "A 67324-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 67324-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 67324-2020.png", "A 67324-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 67324-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 67324-2020.docx", "A 67324-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 67324-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 67324-2020.docx", "A 67324-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 67324-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 67324-2020.docx", "A 67324-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 67324-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 67324-2020.docx", "A 67324-2020")</f>
         <v/>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,27 +1900,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 13716-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 13716-2021.xlsx", "A 13716-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 13716-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 13716-2021.png", "A 13716-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 13716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 13716-2021.docx", "A 13716-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 13716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 13716-2021.docx", "A 13716-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 13716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 13716-2021.docx", "A 13716-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 13716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 13716-2021.docx", "A 13716-2021")</f>
         <v/>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,27 +1985,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 31232-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 31232-2021.xlsx", "A 31232-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 31232-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 31232-2021.png", "A 31232-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 31232-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 31232-2021.docx", "A 31232-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 31232-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 31232-2021.docx", "A 31232-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 31232-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 31232-2021.docx", "A 31232-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 31232-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 31232-2021.docx", "A 31232-2021")</f>
         <v/>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,27 +2075,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 52902-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 52902-2021.xlsx", "A 52902-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 52902-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 52902-2021.png", "A 52902-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 52902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 52902-2021.docx", "A 52902-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 52902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 52902-2021.docx", "A 52902-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 52902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 52902-2021.docx", "A 52902-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 52902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 52902-2021.docx", "A 52902-2021")</f>
         <v/>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,27 +2165,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 35547-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 35547-2022.xlsx", "A 35547-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 35547-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 35547-2022.png", "A 35547-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 35547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 35547-2022.docx", "A 35547-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 35547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 35547-2022.docx", "A 35547-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 35547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 35547-2022.docx", "A 35547-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 35547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 35547-2022.docx", "A 35547-2022")</f>
         <v/>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,27 +2250,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 21552-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/artfynd/A 21552-2023.xlsx", "A 21552-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 21552-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/kartor/A 21552-2023.png", "A 21552-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 21552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomål/A 21552-2023.docx", "A 21552-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 21552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/klagomålsmail/A 21552-2023.docx", "A 21552-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 21552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsyn/A 21552-2023.docx", "A 21552-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 21552-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALIX/tillsynsmail/A 21552-2023.docx", "A 21552-2023")</f>
         <v/>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y439"/>
+  <dimension ref="A1:Y440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="R438" s="2" t="inlineStr"/>
     </row>
-    <row r="439">
+    <row r="439" ht="15" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
           <t>A 37424-2023</t>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26396,6 +26396,63 @@
         <v>0</v>
       </c>
       <c r="R439" s="2" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>A 45218-2023</t>
+        </is>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C440" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>KALIX</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45191</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45191</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45191</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45191</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>

--- a/Översikt KALIX.xlsx
+++ b/Översikt KALIX.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y440"/>
+  <dimension ref="A1:Y442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43738</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44917</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44945</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>43738</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44369</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44510</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44805</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>44123</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44980</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43721</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44181</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44274</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44799</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43332</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>43334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43349</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43360</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43369</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43383</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43390</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43390</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43392</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43398</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43398</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43427</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43430</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43432</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43437</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43437</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43460</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43460</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43460</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43464</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43472</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43474</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43486</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43495</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43517</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43524</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43528</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>43553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>43567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>43580</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43586</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>43587</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43591</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43591</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43591</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43591</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43591</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43591</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43591</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43591</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43619</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43640</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43644</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43651</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43651</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43679</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>43686</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43686</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>43697</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43710</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>43710</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43710</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43720</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43745</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43748</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43759</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43759</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43759</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43761</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43766</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43767</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43772</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43773</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43784</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43795</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43797</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43801</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43803</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43803</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43803</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43808</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43816</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43822</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43822</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43843</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43844</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43864</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43865</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43866</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43872</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>43892</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>43893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43895</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43895</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43895</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43895</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43895</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43901</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43906</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43915</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43916</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43917</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43923</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43941</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43956</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43965</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43985</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43986</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44005</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44007</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44007</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44012</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44013</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44018</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44018</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44050</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>44054</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44061</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>44077</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>44084</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44085</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>44088</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44098</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>44098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>44099</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>44104</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44110</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44112</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44130</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44138</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44165</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44181</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44181</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44207</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44207</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44209</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44215</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44215</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44215</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44215</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44215</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44215</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44244</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44244</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44263</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44264</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44286</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44286</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44287</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44298</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44300</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44319</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44335</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44344</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44350</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44354</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44361</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44369</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>44371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44379</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44379</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44379</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44381</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44382</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44382</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44382</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44386</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44435</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44442</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44449</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44455</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44459</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44461</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44476</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44487</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44489</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>44489</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44491</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44494</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44494</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44495</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44497</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44497</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44512</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44512</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44529</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44529</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44529</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44530</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44536</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44544</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>44568</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44568</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>44580</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44581</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44603</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44603</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44614</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>44623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44636</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44650</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>44659</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>44669</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>44669</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>44712</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44720</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44720</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>44721</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44733</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44743</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44756</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44757</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44757</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44781</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44785</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44802</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44802</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44802</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44812</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44816</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44816</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44825</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44826</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44826</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44833</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44833</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44844</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44862</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44875</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44879</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44882</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44887</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44894</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44894</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44894</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44896</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44901</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44901</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44902</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44903</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44907</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44915</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44924</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44935</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44945</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>44945</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44945</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>44945</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44946</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44950</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44951</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44957</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44964</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44970</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44980</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44981</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44994</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44995</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45005</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45006</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45008</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45013</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45021</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45021</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45036</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45044</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45044</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45044</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45048</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45049</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45049</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45054</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45054</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         <v>45058</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45063</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45063</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45079</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45085</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45086</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45091</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45091</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45091</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45092</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45097</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45097</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45112</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45112</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45112</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45147</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45147</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="R439" s="2" t="inlineStr"/>
     </row>
-    <row r="440">
+    <row r="440" ht="15" customHeight="1">
       <c r="A440" t="inlineStr">
         <is>
           <t>A 45218-2023</t>
@@ -26407,7 +26407,7 @@
         <v>45191</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26453,6 +26453,120 @@
         <v>0</v>
       </c>
       <c r="R440" s="2" t="inlineStr"/>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>A 48057-2023</t>
+        </is>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>KALIX</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" s="2" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>A 48063-2023</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>KALIX</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
